--- a/medicine/Psychotrope/Vigneron/Vigneron.xlsx
+++ b/medicine/Psychotrope/Vigneron/Vigneron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un vigneron est un agriculteur qui cultive la vigne et transforme les raisins obtenus en vin[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un vigneron est un agriculteur qui cultive la vigne et transforme les raisins obtenus en vin,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie et lexicologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « vigneron » provient du mot « vigne ». L'administration française désigne l'activité du vigneron par le terme récent de « vitiviniculture » (ou « viti-viniculture ») désignant la réunion des activités du viticulteur et viniculteur. 
 </t>
@@ -542,7 +556,9 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vigneron peut être propriétaire ou pas des terres qu'il exploite. Il dispose d'un outil de vinification qui peut être particulier au sein de la propriété ou collectif sous forme d'une cave coopérative. Celle-ci s'inscrit alors dans le prolongement de la propriété.
 </t>
